--- a/po_analysis_by_asin/B0BVRF2X8K_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRF2X8K_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45327</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>18</v>
@@ -460,65 +460,153 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45341</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45355</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45390</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45397</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45404</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45418</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45439</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B21" t="n">
         <v>102</v>
       </c>
     </row>
@@ -533,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,33 +643,81 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B11" t="n">
         <v>104</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BVRF2X8K_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRF2X8K_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -637,7 +638,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -719,6 +720,439 @@
       </c>
       <c r="B11" t="n">
         <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-30.65212395824164</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.4948957939655</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-26.97617308290547</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.75927173340467</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-26.27712384241473</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.70643441762786</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-21.84253491075988</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.52736384175298</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-23.22801348831307</v>
+      </c>
+      <c r="D6" t="n">
+        <v>31.21061004722832</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-20.5495155227786</v>
+      </c>
+      <c r="D7" t="n">
+        <v>31.96057824160141</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-19.49002691876971</v>
+      </c>
+      <c r="D8" t="n">
+        <v>32.9611805952657</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-21.28839395940092</v>
+      </c>
+      <c r="D9" t="n">
+        <v>33.41971559641038</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-19.36810684722652</v>
+      </c>
+      <c r="D10" t="n">
+        <v>33.85645581789311</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-18.3937980445621</v>
+      </c>
+      <c r="D11" t="n">
+        <v>34.80962035783814</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-18.20526296844842</v>
+      </c>
+      <c r="D12" t="n">
+        <v>33.89699261997431</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-12.28267601373856</v>
+      </c>
+      <c r="D13" t="n">
+        <v>39.31696044393701</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>14</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-11.71815686642807</v>
+      </c>
+      <c r="D14" t="n">
+        <v>41.25887175161218</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-13.32727388568488</v>
+      </c>
+      <c r="D15" t="n">
+        <v>40.44702950283356</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-10.50724232824384</v>
+      </c>
+      <c r="D16" t="n">
+        <v>42.85067841025483</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-10.58628905481849</v>
+      </c>
+      <c r="D17" t="n">
+        <v>44.76491152764937</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-9.004838241168171</v>
+      </c>
+      <c r="D18" t="n">
+        <v>44.65788074616678</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-8.558817684470556</v>
+      </c>
+      <c r="D19" t="n">
+        <v>45.3053674743157</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-6.306750696441921</v>
+      </c>
+      <c r="D20" t="n">
+        <v>45.98852088479056</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-7.288721879126082</v>
+      </c>
+      <c r="D21" t="n">
+        <v>47.8513510982541</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-8.278877222769102</v>
+      </c>
+      <c r="D22" t="n">
+        <v>46.46579202686188</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-8.842509948652884</v>
+      </c>
+      <c r="D23" t="n">
+        <v>47.77565812098833</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>21</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-6.752901443864514</v>
+      </c>
+      <c r="D24" t="n">
+        <v>46.56533503315993</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>21</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-4.574108641495878</v>
+      </c>
+      <c r="D25" t="n">
+        <v>46.74094840863094</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>22</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-3.824539320816278</v>
+      </c>
+      <c r="D26" t="n">
+        <v>48.10975149219672</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>22</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-5.874019670676055</v>
+      </c>
+      <c r="D27" t="n">
+        <v>48.33135233105263</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>22</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-3.827604905718416</v>
+      </c>
+      <c r="D28" t="n">
+        <v>48.5705023286648</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>23</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-4.215619214756894</v>
+      </c>
+      <c r="D29" t="n">
+        <v>48.06439805068436</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BVRF2X8K_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRF2X8K_po_data.xlsx
@@ -733,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -752,16 +752,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -770,12 +760,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>-30.65212395824164</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.4948957939655</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -784,12 +768,6 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>-26.97617308290547</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24.75927173340467</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -798,12 +776,6 @@
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
-        <v>-26.27712384241473</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26.70643441762786</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -812,12 +784,6 @@
       <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
-        <v>-21.84253491075988</v>
-      </c>
-      <c r="D5" t="n">
-        <v>31.52736384175298</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -826,12 +792,6 @@
       <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
-        <v>-23.22801348831307</v>
-      </c>
-      <c r="D6" t="n">
-        <v>31.21061004722832</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -840,12 +800,6 @@
       <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
-        <v>-20.5495155227786</v>
-      </c>
-      <c r="D7" t="n">
-        <v>31.96057824160141</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -854,12 +808,6 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" t="n">
-        <v>-19.49002691876971</v>
-      </c>
-      <c r="D8" t="n">
-        <v>32.9611805952657</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -868,12 +816,6 @@
       <c r="B9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" t="n">
-        <v>-21.28839395940092</v>
-      </c>
-      <c r="D9" t="n">
-        <v>33.41971559641038</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -882,12 +824,6 @@
       <c r="B10" t="n">
         <v>8</v>
       </c>
-      <c r="C10" t="n">
-        <v>-19.36810684722652</v>
-      </c>
-      <c r="D10" t="n">
-        <v>33.85645581789311</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -896,12 +832,6 @@
       <c r="B11" t="n">
         <v>8</v>
       </c>
-      <c r="C11" t="n">
-        <v>-18.3937980445621</v>
-      </c>
-      <c r="D11" t="n">
-        <v>34.80962035783814</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -910,12 +840,6 @@
       <c r="B12" t="n">
         <v>8</v>
       </c>
-      <c r="C12" t="n">
-        <v>-18.20526296844842</v>
-      </c>
-      <c r="D12" t="n">
-        <v>33.89699261997431</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -924,12 +848,6 @@
       <c r="B13" t="n">
         <v>13</v>
       </c>
-      <c r="C13" t="n">
-        <v>-12.28267601373856</v>
-      </c>
-      <c r="D13" t="n">
-        <v>39.31696044393701</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -938,12 +856,6 @@
       <c r="B14" t="n">
         <v>14</v>
       </c>
-      <c r="C14" t="n">
-        <v>-11.71815686642807</v>
-      </c>
-      <c r="D14" t="n">
-        <v>41.25887175161218</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -952,12 +864,6 @@
       <c r="B15" t="n">
         <v>15</v>
       </c>
-      <c r="C15" t="n">
-        <v>-13.32727388568488</v>
-      </c>
-      <c r="D15" t="n">
-        <v>40.44702950283356</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -966,12 +872,6 @@
       <c r="B16" t="n">
         <v>16</v>
       </c>
-      <c r="C16" t="n">
-        <v>-10.50724232824384</v>
-      </c>
-      <c r="D16" t="n">
-        <v>42.85067841025483</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -980,12 +880,6 @@
       <c r="B17" t="n">
         <v>17</v>
       </c>
-      <c r="C17" t="n">
-        <v>-10.58628905481849</v>
-      </c>
-      <c r="D17" t="n">
-        <v>44.76491152764937</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -994,12 +888,6 @@
       <c r="B18" t="n">
         <v>17</v>
       </c>
-      <c r="C18" t="n">
-        <v>-9.004838241168171</v>
-      </c>
-      <c r="D18" t="n">
-        <v>44.65788074616678</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1008,12 +896,6 @@
       <c r="B19" t="n">
         <v>18</v>
       </c>
-      <c r="C19" t="n">
-        <v>-8.558817684470556</v>
-      </c>
-      <c r="D19" t="n">
-        <v>45.3053674743157</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1022,12 +904,6 @@
       <c r="B20" t="n">
         <v>18</v>
       </c>
-      <c r="C20" t="n">
-        <v>-6.306750696441921</v>
-      </c>
-      <c r="D20" t="n">
-        <v>45.98852088479056</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1036,12 +912,6 @@
       <c r="B21" t="n">
         <v>20</v>
       </c>
-      <c r="C21" t="n">
-        <v>-7.288721879126082</v>
-      </c>
-      <c r="D21" t="n">
-        <v>47.8513510982541</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1050,12 +920,6 @@
       <c r="B22" t="n">
         <v>20</v>
       </c>
-      <c r="C22" t="n">
-        <v>-8.278877222769102</v>
-      </c>
-      <c r="D22" t="n">
-        <v>46.46579202686188</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1064,12 +928,6 @@
       <c r="B23" t="n">
         <v>20</v>
       </c>
-      <c r="C23" t="n">
-        <v>-8.842509948652884</v>
-      </c>
-      <c r="D23" t="n">
-        <v>47.77565812098833</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1078,12 +936,6 @@
       <c r="B24" t="n">
         <v>21</v>
       </c>
-      <c r="C24" t="n">
-        <v>-6.752901443864514</v>
-      </c>
-      <c r="D24" t="n">
-        <v>46.56533503315993</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1092,12 +944,6 @@
       <c r="B25" t="n">
         <v>21</v>
       </c>
-      <c r="C25" t="n">
-        <v>-4.574108641495878</v>
-      </c>
-      <c r="D25" t="n">
-        <v>46.74094840863094</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1106,12 +952,6 @@
       <c r="B26" t="n">
         <v>22</v>
       </c>
-      <c r="C26" t="n">
-        <v>-3.824539320816278</v>
-      </c>
-      <c r="D26" t="n">
-        <v>48.10975149219672</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1120,12 +960,6 @@
       <c r="B27" t="n">
         <v>22</v>
       </c>
-      <c r="C27" t="n">
-        <v>-5.874019670676055</v>
-      </c>
-      <c r="D27" t="n">
-        <v>48.33135233105263</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1134,12 +968,6 @@
       <c r="B28" t="n">
         <v>22</v>
       </c>
-      <c r="C28" t="n">
-        <v>-3.827604905718416</v>
-      </c>
-      <c r="D28" t="n">
-        <v>48.5705023286648</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1147,12 +975,6 @@
       </c>
       <c r="B29" t="n">
         <v>23</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-4.215619214756894</v>
-      </c>
-      <c r="D29" t="n">
-        <v>48.06439805068436</v>
       </c>
     </row>
   </sheetData>
